--- a/Calls/November_2025/Lexi_nov.xlsx
+++ b/Calls/November_2025/Lexi_nov.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_pw\crownjewel_site\Calls\November_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7E2F9-A206-4A27-8E2B-15CD44F4D0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D60939-B004-4AE3-B66D-5EF4C4375A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{CC197E5D-F9F9-4FE2-A19C-7FBBF7A96E8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC197E5D-F9F9-4FE2-A19C-7FBBF7A96E8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ruby" sheetId="1" r:id="rId1"/>
-    <sheet name="Rosie" sheetId="2" r:id="rId2"/>
-    <sheet name="Whiskey" sheetId="3" r:id="rId3"/>
+    <sheet name="Lexi" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Name client</t>
   </si>
@@ -113,6 +111,36 @@
   </si>
   <si>
     <t>Too demanding Merbs, no breaks allowed, block</t>
+  </si>
+  <si>
+    <t>10-11pm</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>7271 avenue de la Nantaise apt 510</t>
+  </si>
+  <si>
+    <t>514-641-4203</t>
+  </si>
+  <si>
+    <t>2180 rue Sainte-Catherine Est</t>
+  </si>
+  <si>
+    <t>514-501-4869</t>
+  </si>
+  <si>
+    <t>263-388-9353</t>
+  </si>
+  <si>
+    <t>514-570-5600</t>
+  </si>
+  <si>
+    <t>Blocked Too Rough</t>
+  </si>
+  <si>
+    <t>2-3pm</t>
   </si>
 </sst>
 </file>
@@ -494,92 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA042BC-5BBA-4CCC-96BE-3CC05065038F}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0921F-9B63-4197-93FF-980542649C65}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E12322-240F-43D9-97FF-CEBA862B3E6C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +534,7 @@
     <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,6 +678,83 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45984</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>270</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
